--- a/public/template/Recomendaciones.xlsx
+++ b/public/template/Recomendaciones.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdominguez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdominguez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Indicaciones" sheetId="2" r:id="rId1"/>
@@ -677,9 +677,6 @@
     <t>A30.4.-Trata de niñas, niños y adolescentes</t>
   </si>
   <si>
-    <t>A1.2.-Arraigo||A1.4.-Combate a la impunidad||A2.1.-Defensoría Pública</t>
-  </si>
-  <si>
     <t>Tipo de Acción Reportada</t>
   </si>
   <si>
@@ -1121,9 +1118,6 @@
     <t>2.-Derechos de las personas desplazadas internas</t>
   </si>
   <si>
-    <t>Derecho a no ser sometido/a a ejecuciones sumarias, extrajudiciales o arbitrarias||Derecho a no ser sometido/a a pena de muerte||Deerechos de las mujeres adultas mayores||2.-Derecho al agua potable y saneamiento||2.-Derechos de las personas LGBTTTIQ+</t>
-  </si>
-  <si>
     <t>Fecha de reporte (yyyy-mm-dd)</t>
   </si>
   <si>
@@ -1157,9 +1151,6 @@
     <t>Recursos presupuestarios, humanos o técnicos</t>
   </si>
   <si>
-    <t>Protocolo</t>
-  </si>
-  <si>
     <t>Sanción de delitos</t>
   </si>
   <si>
@@ -1673,28 +1664,10 @@
     <t>Ejecutivo||Judicial||Organismos Constitucionales Autónomos</t>
   </si>
   <si>
-    <t>Auditoría Superior de la Federación||Cámara de Senadores del H. Congreso de la Unión||Comisión Federal de Electricidad</t>
-  </si>
-  <si>
-    <t>Personas Extranjeras||Personas con dicapacidad||Personas LGBTTTIQ+</t>
-  </si>
-  <si>
-    <t>Lineamientos||Programa||Transparencia y rendición de cuentas</t>
-  </si>
-  <si>
     <t>Vigente (Si/No)</t>
   </si>
   <si>
     <t>Dirigida al Estado (Si/No)</t>
-  </si>
-  <si>
-    <t>Personas o Grupos Específicos</t>
-  </si>
-  <si>
-    <t>Acción judicial||Acción legislativa</t>
-  </si>
-  <si>
-    <t>General||Mujeres</t>
   </si>
   <si>
     <t>Estatal||Federal||Municipal</t>
@@ -2322,9 +2295,6 @@
     <t>ODS (acrónimo)</t>
   </si>
   <si>
-    <t>M1.1||M1.b</t>
-  </si>
-  <si>
     <t>Nombre oficial del reporte</t>
   </si>
   <si>
@@ -3049,6 +3019,36 @@
   </si>
   <si>
     <t>Seguimiento de recomendaciones internacionales</t>
+  </si>
+  <si>
+    <t>M1.1||M17.19</t>
+  </si>
+  <si>
+    <t>Auditoría Superior de la Federación||Auditoría Superior de la Federación||Comisión Federal de Electricidad</t>
+  </si>
+  <si>
+    <t>Personas Extranjeras||Personas LGBTTTIQ+</t>
+  </si>
+  <si>
+    <t>Lineamientos||Transparencia y rendición de cuentas</t>
+  </si>
+  <si>
+    <t>Derecho a no ser sometido/a a ejecuciones sumarias, extrajudiciales o arbitrarias||Derecho a no ser sometido/a a pena de muerte||2.-Derecho al agua potable y saneamiento||2.-Derechos de las personas LGBTTTIQ+</t>
+  </si>
+  <si>
+    <t>A2.1.-Defensoría Pública</t>
+  </si>
+  <si>
+    <t>Transparencia y rendición de cuentas||Acciones legislativas</t>
+  </si>
+  <si>
+    <t>Peritos médicos||Mujeres</t>
+  </si>
+  <si>
+    <t>Medidas de reparación integral a víctimas||Programas</t>
+  </si>
+  <si>
+    <t>Población</t>
   </si>
 </sst>
 </file>
@@ -3597,15 +3597,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3624,6 +3615,15 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3640,6 +3640,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3661,9 +3664,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4104,7 +4104,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
@@ -4172,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4215,13 +4215,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>553</v>
+        <v>995</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4230,90 +4230,90 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="Q1" s="43" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="S1" s="43" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="57.6">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="43.2">
       <c r="A2" s="18" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>548</v>
+        <v>987</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>549</v>
+        <v>988</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>550</v>
+        <v>989</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>753</v>
+        <v>986</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>364</v>
+        <v>990</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>216</v>
+        <v>991</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="L2" s="18">
         <v>2019</v>
       </c>
       <c r="M2" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R2" t="s">
+        <v>559</v>
+      </c>
+      <c r="S2" t="s">
         <v>560</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>565</v>
-      </c>
-      <c r="R2" t="s">
-        <v>568</v>
-      </c>
-      <c r="S2" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4327,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4342,42 +4342,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="24">
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>554</v>
+        <v>992</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>555</v>
+        <v>993</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8">
@@ -4385,19 +4385,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>376</v>
+        <v>994</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -4410,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4434,14 +4434,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="44"/>
       <c r="H1" s="16"/>
       <c r="I1" s="17"/>
@@ -4449,82 +4449,82 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="77" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="N1" s="77"/>
       <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="88" t="s">
-        <v>559</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>558</v>
+      <c r="E2" s="89" t="s">
+        <v>550</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>549</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>582</v>
-      </c>
-      <c r="H2" s="86" t="s">
+        <v>573</v>
+      </c>
+      <c r="H2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="90" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="90"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="28" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="14" customFormat="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="85"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="92"/>
-      <c r="H3" s="87"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
       <c r="M3" s="42" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>19</v>
@@ -4533,45 +4533,45 @@
         <v>22</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="K4" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="76" t="s">
         <v>59</v>
       </c>
       <c r="L4" s="50" t="s">
         <v>82</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
@@ -4580,41 +4580,41 @@
         <v>23</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="K5" s="68"/>
+        <v>299</v>
+      </c>
+      <c r="K5" s="76"/>
       <c r="L5" s="51" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="N5" s="79"/>
       <c r="O5" s="35" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>21</v>
@@ -4623,314 +4623,314 @@
         <v>24</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>812</v>
-      </c>
-      <c r="K6" s="68"/>
+        <v>802</v>
+      </c>
+      <c r="K6" s="76"/>
       <c r="L6" s="51" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="79"/>
       <c r="O6" s="35" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="K7" s="68"/>
+        <v>300</v>
+      </c>
+      <c r="K7" s="76"/>
       <c r="L7" s="51" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="79"/>
       <c r="O7" s="35" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="D8" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" s="68"/>
+        <v>301</v>
+      </c>
+      <c r="K8" s="76"/>
       <c r="L8" s="51" t="s">
         <v>83</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="80"/>
       <c r="O8" s="36" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8">
       <c r="D9" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="K9" s="68"/>
+        <v>302</v>
+      </c>
+      <c r="K9" s="76"/>
       <c r="L9" s="51" t="s">
         <v>84</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="81" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="D10" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>813</v>
-      </c>
-      <c r="K10" s="68"/>
+        <v>803</v>
+      </c>
+      <c r="K10" s="76"/>
       <c r="L10" s="51" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="81"/>
       <c r="O10" s="35" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="D11" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="K11" s="68"/>
+        <v>285</v>
+      </c>
+      <c r="K11" s="76"/>
       <c r="L11" s="52" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="82"/>
       <c r="O11" s="36" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="28.8">
       <c r="D12" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>988</v>
+        <v>286</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>978</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="28.8">
       <c r="D13" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="76"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="51" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="28.8">
       <c r="D14" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="K14" s="76"/>
+        <v>288</v>
+      </c>
+      <c r="K14" s="73"/>
       <c r="L14" s="51" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="28.8">
       <c r="D15" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="K15" s="76"/>
+        <v>287</v>
+      </c>
+      <c r="K15" s="73"/>
       <c r="L15" s="51" t="s">
         <v>85</v>
       </c>
@@ -4938,83 +4938,83 @@
     </row>
     <row r="16" spans="1:15" ht="28.8">
       <c r="D16" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>814</v>
-      </c>
-      <c r="K16" s="76"/>
+        <v>804</v>
+      </c>
+      <c r="K16" s="73"/>
       <c r="L16" s="51" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="4:13" ht="28.8">
       <c r="D17" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="K17" s="76"/>
+        <v>289</v>
+      </c>
+      <c r="K17" s="73"/>
       <c r="L17" s="52" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="4:13" ht="28.8">
       <c r="D18" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="68" t="s">
+      <c r="K18" s="76" t="s">
         <v>60</v>
       </c>
       <c r="L18" s="50" t="s">
@@ -5024,27 +5024,27 @@
     </row>
     <row r="19" spans="4:13">
       <c r="D19" s="19" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="K19" s="68"/>
+        <v>283</v>
+      </c>
+      <c r="K19" s="76"/>
       <c r="L19" s="51" t="s">
         <v>87</v>
       </c>
@@ -5052,27 +5052,27 @@
     </row>
     <row r="20" spans="4:13">
       <c r="D20" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="K20" s="68"/>
+        <v>284</v>
+      </c>
+      <c r="K20" s="76"/>
       <c r="L20" s="51" t="s">
         <v>88</v>
       </c>
@@ -5080,27 +5080,27 @@
     </row>
     <row r="21" spans="4:13">
       <c r="D21" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E21" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>377</v>
-      </c>
       <c r="G21" s="48" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="K21" s="68"/>
+        <v>292</v>
+      </c>
+      <c r="K21" s="76"/>
       <c r="L21" s="51" t="s">
         <v>89</v>
       </c>
@@ -5108,27 +5108,27 @@
     </row>
     <row r="22" spans="4:13">
       <c r="D22" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="68"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="51" t="s">
         <v>90</v>
       </c>
@@ -5136,99 +5136,99 @@
     </row>
     <row r="23" spans="4:13">
       <c r="D23" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="76"/>
       <c r="L23" s="51" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="4:13">
       <c r="D24" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="K24" s="68"/>
+        <v>290</v>
+      </c>
+      <c r="K24" s="76"/>
       <c r="L24" s="51" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="4:13">
       <c r="D25" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J25" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="68"/>
+      <c r="K25" s="76"/>
       <c r="L25" s="51" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="M25" s="15"/>
     </row>
     <row r="26" spans="4:13">
       <c r="D26" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="68"/>
+      <c r="K26" s="76"/>
       <c r="L26" s="51" t="s">
         <v>91</v>
       </c>
@@ -5236,49 +5236,49 @@
     </row>
     <row r="27" spans="4:13">
       <c r="D27" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J27" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="68"/>
+      <c r="K27" s="76"/>
       <c r="L27" s="52" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="M27" s="15"/>
     </row>
     <row r="28" spans="4:13">
       <c r="D28" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="K28" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="K28" s="74" t="s">
         <v>61</v>
       </c>
       <c r="L28" s="50" t="s">
@@ -5288,24 +5288,24 @@
     </row>
     <row r="29" spans="4:13" ht="43.2">
       <c r="D29" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J29" s="39" t="s">
-        <v>815</v>
-      </c>
-      <c r="K29" s="69"/>
+        <v>805</v>
+      </c>
+      <c r="K29" s="74"/>
       <c r="L29" s="51" t="s">
         <v>93</v>
       </c>
@@ -5313,21 +5313,21 @@
     </row>
     <row r="30" spans="4:13">
       <c r="D30" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="69"/>
+      <c r="K30" s="74"/>
       <c r="L30" s="51" t="s">
         <v>94</v>
       </c>
@@ -5335,63 +5335,63 @@
     </row>
     <row r="31" spans="4:13">
       <c r="D31" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="K31" s="69"/>
+        <v>294</v>
+      </c>
+      <c r="K31" s="74"/>
       <c r="L31" s="51" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="M31" s="15"/>
     </row>
     <row r="32" spans="4:13">
       <c r="D32" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="69"/>
+      <c r="K32" s="74"/>
       <c r="L32" s="52" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="4:13">
       <c r="D33" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="39" t="s">
-        <v>816</v>
-      </c>
-      <c r="K33" s="70" t="s">
+        <v>806</v>
+      </c>
+      <c r="K33" s="75" t="s">
         <v>62</v>
       </c>
       <c r="L33" s="50" t="s">
@@ -5401,19 +5401,19 @@
     </row>
     <row r="34" spans="4:13">
       <c r="D34" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="K34" s="70"/>
+        <v>293</v>
+      </c>
+      <c r="K34" s="75"/>
       <c r="L34" s="51" t="s">
         <v>96</v>
       </c>
@@ -5421,39 +5421,39 @@
     </row>
     <row r="35" spans="4:13">
       <c r="D35" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="K35" s="70"/>
+        <v>291</v>
+      </c>
+      <c r="K35" s="75"/>
       <c r="L35" s="51" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="4:13">
       <c r="D36" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="70"/>
+      <c r="K36" s="75"/>
       <c r="L36" s="51" t="s">
         <v>97</v>
       </c>
@@ -5461,19 +5461,19 @@
     </row>
     <row r="37" spans="4:13">
       <c r="D37" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="K37" s="70"/>
+        <v>296</v>
+      </c>
+      <c r="K37" s="75"/>
       <c r="L37" s="51" t="s">
         <v>98</v>
       </c>
@@ -5481,19 +5481,19 @@
     </row>
     <row r="38" spans="4:13" ht="28.8">
       <c r="D38" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="K38" s="70"/>
+        <v>295</v>
+      </c>
+      <c r="K38" s="75"/>
       <c r="L38" s="51" t="s">
         <v>99</v>
       </c>
@@ -5501,19 +5501,19 @@
     </row>
     <row r="39" spans="4:13">
       <c r="D39" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="70"/>
+      <c r="K39" s="75"/>
       <c r="L39" s="51" t="s">
         <v>100</v>
       </c>
@@ -5521,19 +5521,19 @@
     </row>
     <row r="40" spans="4:13" ht="28.8">
       <c r="D40" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I40" s="38"/>
       <c r="J40" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="70"/>
+      <c r="K40" s="75"/>
       <c r="L40" s="51" t="s">
         <v>101</v>
       </c>
@@ -5541,19 +5541,19 @@
     </row>
     <row r="41" spans="4:13">
       <c r="D41" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I41" s="38"/>
       <c r="J41" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="70"/>
+      <c r="K41" s="75"/>
       <c r="L41" s="51" t="s">
         <v>102</v>
       </c>
@@ -5561,19 +5561,19 @@
     </row>
     <row r="42" spans="4:13">
       <c r="D42" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I42" s="38"/>
       <c r="J42" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="K42" s="70"/>
+        <v>298</v>
+      </c>
+      <c r="K42" s="75"/>
       <c r="L42" s="51" t="s">
         <v>103</v>
       </c>
@@ -5581,99 +5581,99 @@
     </row>
     <row r="43" spans="4:13">
       <c r="D43" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I43" s="38"/>
       <c r="J43" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="K43" s="70"/>
+      <c r="K43" s="75"/>
       <c r="L43" s="51" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="4:13">
       <c r="D44" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I44" s="38"/>
       <c r="J44" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="70"/>
+      <c r="K44" s="75"/>
       <c r="L44" s="51" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="4:13">
       <c r="D45" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I45" s="38"/>
       <c r="J45" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K45" s="70"/>
+      <c r="K45" s="75"/>
       <c r="L45" s="51" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="M45" s="15"/>
     </row>
     <row r="46" spans="4:13">
       <c r="D46" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I46" s="38"/>
       <c r="J46" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="K46" s="70"/>
+        <v>807</v>
+      </c>
+      <c r="K46" s="75"/>
       <c r="L46" s="52" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="M46" s="15"/>
     </row>
     <row r="47" spans="4:13" ht="28.8">
       <c r="D47" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I47" s="38"/>
       <c r="J47" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="K47" s="68" t="s">
         <v>63</v>
       </c>
       <c r="L47" s="50" t="s">
@@ -5683,39 +5683,39 @@
     </row>
     <row r="48" spans="4:13">
       <c r="D48" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I48" s="38"/>
       <c r="J48" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="71"/>
+      <c r="K48" s="68"/>
       <c r="L48" s="51" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="4:13">
       <c r="D49" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I49" s="38"/>
       <c r="J49" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="K49" s="71"/>
+        <v>308</v>
+      </c>
+      <c r="K49" s="68"/>
       <c r="L49" s="51" t="s">
         <v>105</v>
       </c>
@@ -5723,19 +5723,19 @@
     </row>
     <row r="50" spans="4:13">
       <c r="D50" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="71"/>
+      <c r="K50" s="68"/>
       <c r="L50" s="51" t="s">
         <v>106</v>
       </c>
@@ -5746,16 +5746,16 @@
         <v>27</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="K51" s="71"/>
+      <c r="K51" s="68"/>
       <c r="L51" s="51" t="s">
         <v>107</v>
       </c>
@@ -5763,19 +5763,19 @@
     </row>
     <row r="52" spans="4:13">
       <c r="D52" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="K52" s="71"/>
+        <v>306</v>
+      </c>
+      <c r="K52" s="68"/>
       <c r="L52" s="51" t="s">
         <v>108</v>
       </c>
@@ -5783,19 +5783,19 @@
     </row>
     <row r="53" spans="4:13" ht="28.8">
       <c r="D53" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="K53" s="71"/>
+        <v>307</v>
+      </c>
+      <c r="K53" s="68"/>
       <c r="L53" s="51" t="s">
         <v>109</v>
       </c>
@@ -5803,19 +5803,19 @@
     </row>
     <row r="54" spans="4:13">
       <c r="D54" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K54" s="71"/>
+      <c r="K54" s="68"/>
       <c r="L54" s="51" t="s">
         <v>110</v>
       </c>
@@ -5823,19 +5823,19 @@
     </row>
     <row r="55" spans="4:13">
       <c r="D55" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I55" s="38"/>
       <c r="J55" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="K55" s="71"/>
+        <v>309</v>
+      </c>
+      <c r="K55" s="68"/>
       <c r="L55" s="51" t="s">
         <v>111</v>
       </c>
@@ -5843,21 +5843,21 @@
     </row>
     <row r="56" spans="4:13">
       <c r="D56" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="H56" s="45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I56" s="38"/>
       <c r="J56" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K56" s="71"/>
+      <c r="K56" s="68"/>
       <c r="L56" s="51" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="M56" s="15"/>
     </row>
@@ -5866,78 +5866,78 @@
         <v>26</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I57" s="38"/>
       <c r="J57" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="K57" s="71"/>
+      <c r="K57" s="68"/>
       <c r="L57" s="51" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="M57" s="15"/>
     </row>
     <row r="58" spans="4:13">
       <c r="D58" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I58" s="38"/>
       <c r="J58" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K58" s="71"/>
+      <c r="K58" s="68"/>
       <c r="L58" s="52" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="M58" s="15"/>
     </row>
     <row r="59" spans="4:13">
       <c r="D59" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G59" s="48" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I59" s="38"/>
       <c r="J59" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K59" s="72" t="s">
+      <c r="K59" s="69" t="s">
         <v>64</v>
       </c>
       <c r="L59" s="50" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="M59" s="15"/>
     </row>
     <row r="60" spans="4:13">
       <c r="D60" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I60" s="38"/>
       <c r="J60" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="K60" s="72"/>
+        <v>304</v>
+      </c>
+      <c r="K60" s="69"/>
       <c r="L60" s="51" t="s">
         <v>112</v>
       </c>
@@ -5948,16 +5948,16 @@
         <v>28</v>
       </c>
       <c r="G61" s="48" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I61" s="38"/>
       <c r="J61" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="K61" s="72"/>
+        <v>305</v>
+      </c>
+      <c r="K61" s="69"/>
       <c r="L61" s="51" t="s">
         <v>57</v>
       </c>
@@ -5965,19 +5965,19 @@
     </row>
     <row r="62" spans="4:13" ht="28.8">
       <c r="D62" s="19" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G62" s="48" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I62" s="38"/>
       <c r="J62" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="K62" s="72"/>
+        <v>326</v>
+      </c>
+      <c r="K62" s="69"/>
       <c r="L62" s="51" t="s">
         <v>113</v>
       </c>
@@ -5985,19 +5985,19 @@
     </row>
     <row r="63" spans="4:13" ht="28.8">
       <c r="D63" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I63" s="38"/>
       <c r="J63" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="K63" s="72"/>
+        <v>329</v>
+      </c>
+      <c r="K63" s="69"/>
       <c r="L63" s="51" t="s">
         <v>114</v>
       </c>
@@ -6005,19 +6005,19 @@
     </row>
     <row r="64" spans="4:13">
       <c r="D64" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G64" s="48" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I64" s="38"/>
       <c r="J64" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="K64" s="72"/>
+        <v>325</v>
+      </c>
+      <c r="K64" s="69"/>
       <c r="L64" s="51" t="s">
         <v>115</v>
       </c>
@@ -6025,19 +6025,19 @@
     </row>
     <row r="65" spans="4:13">
       <c r="D65" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G65" s="48" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="H65" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I65" s="38"/>
       <c r="J65" s="39" t="s">
-        <v>818</v>
-      </c>
-      <c r="K65" s="72"/>
+        <v>808</v>
+      </c>
+      <c r="K65" s="69"/>
       <c r="L65" s="51" t="s">
         <v>116</v>
       </c>
@@ -6045,80 +6045,80 @@
     </row>
     <row r="66" spans="4:13" ht="28.8">
       <c r="D66" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G66" s="48" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I66" s="38"/>
       <c r="J66" s="39" t="s">
-        <v>819</v>
-      </c>
-      <c r="K66" s="72"/>
+        <v>809</v>
+      </c>
+      <c r="K66" s="69"/>
       <c r="L66" s="51" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="M66" s="15"/>
     </row>
     <row r="67" spans="4:13" ht="28.8">
       <c r="D67" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H67" s="45" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I67" s="38"/>
       <c r="J67" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="K67" s="72"/>
+        <v>328</v>
+      </c>
+      <c r="K67" s="69"/>
       <c r="L67" s="51" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="M67" s="15"/>
     </row>
     <row r="68" spans="4:13">
       <c r="D68" s="19" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G68" s="48" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="H68" s="45" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I68" s="38"/>
       <c r="J68" s="39" t="s">
-        <v>820</v>
-      </c>
-      <c r="K68" s="72"/>
+        <v>810</v>
+      </c>
+      <c r="K68" s="69"/>
       <c r="L68" s="52" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="4:13">
       <c r="D69" s="19" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="G69" s="48" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="H69" s="45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="K69" s="73" t="s">
-        <v>989</v>
+        <v>322</v>
+      </c>
+      <c r="K69" s="70" t="s">
+        <v>979</v>
       </c>
       <c r="L69" s="50" t="s">
         <v>117</v>
@@ -6127,59 +6127,59 @@
     </row>
     <row r="70" spans="4:13" ht="28.8">
       <c r="D70" s="19" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G70" s="48" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="H70" s="45" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I70" s="38"/>
       <c r="J70" s="39" t="s">
-        <v>821</v>
-      </c>
-      <c r="K70" s="73"/>
+        <v>811</v>
+      </c>
+      <c r="K70" s="70"/>
       <c r="L70" s="51" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="M70" s="15"/>
     </row>
     <row r="71" spans="4:13">
       <c r="D71" s="19" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="G71" s="48" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="H71" s="45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I71" s="38"/>
       <c r="J71" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K71" s="73"/>
+      <c r="K71" s="70"/>
       <c r="L71" s="51" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="M71" s="15"/>
     </row>
     <row r="72" spans="4:13">
       <c r="D72" s="19" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G72" s="48" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="H72" s="45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I72" s="38"/>
       <c r="J72" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="K72" s="73"/>
+        <v>327</v>
+      </c>
+      <c r="K72" s="70"/>
       <c r="L72" s="51" t="s">
         <v>118</v>
       </c>
@@ -6187,19 +6187,19 @@
     </row>
     <row r="73" spans="4:13">
       <c r="D73" s="19" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="G73" s="48" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="H73" s="45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I73" s="38"/>
       <c r="J73" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="K73" s="73"/>
+        <v>324</v>
+      </c>
+      <c r="K73" s="70"/>
       <c r="L73" s="51" t="s">
         <v>119</v>
       </c>
@@ -6207,81 +6207,81 @@
     </row>
     <row r="74" spans="4:13">
       <c r="D74" s="19" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G74" s="48" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="H74" s="45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I74" s="38"/>
       <c r="J74" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="K74" s="73"/>
+        <v>330</v>
+      </c>
+      <c r="K74" s="70"/>
       <c r="L74" s="51" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="M74" s="15"/>
     </row>
     <row r="75" spans="4:13">
       <c r="D75" s="19" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="G75" s="48" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="H75" s="45" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I75" s="38"/>
       <c r="J75" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="K75" s="73"/>
+        <v>323</v>
+      </c>
+      <c r="K75" s="70"/>
       <c r="L75" s="52" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="M75" s="15"/>
     </row>
     <row r="76" spans="4:13">
       <c r="D76" s="19" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G76" s="48" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="H76" s="45" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="39" t="s">
-        <v>822</v>
-      </c>
-      <c r="K76" s="74" t="s">
+        <v>812</v>
+      </c>
+      <c r="K76" s="71" t="s">
         <v>65</v>
       </c>
       <c r="L76" s="50" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="M76" s="15"/>
     </row>
     <row r="77" spans="4:13">
       <c r="D77" s="19" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="G77" s="48" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="H77" s="45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I77" s="38"/>
       <c r="J77" s="39" t="s">
-        <v>821</v>
-      </c>
-      <c r="K77" s="74"/>
+        <v>811</v>
+      </c>
+      <c r="K77" s="71"/>
       <c r="L77" s="51" t="s">
         <v>120</v>
       </c>
@@ -6289,19 +6289,19 @@
     </row>
     <row r="78" spans="4:13">
       <c r="D78" s="19" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G78" s="48" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="39" t="s">
-        <v>823</v>
-      </c>
-      <c r="K78" s="74"/>
+        <v>813</v>
+      </c>
+      <c r="K78" s="71"/>
       <c r="L78" s="51" t="s">
         <v>121</v>
       </c>
@@ -6309,19 +6309,19 @@
     </row>
     <row r="79" spans="4:13" ht="28.8">
       <c r="D79" s="19" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="G79" s="48" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="H79" s="45" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I79" s="38"/>
       <c r="J79" s="39" t="s">
-        <v>824</v>
-      </c>
-      <c r="K79" s="74"/>
+        <v>814</v>
+      </c>
+      <c r="K79" s="71"/>
       <c r="L79" s="51" t="s">
         <v>122</v>
       </c>
@@ -6329,19 +6329,19 @@
     </row>
     <row r="80" spans="4:13" ht="28.8">
       <c r="D80" s="19" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G80" s="48" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I80" s="38"/>
       <c r="J80" s="39" t="s">
-        <v>825</v>
-      </c>
-      <c r="K80" s="74"/>
+        <v>815</v>
+      </c>
+      <c r="K80" s="71"/>
       <c r="L80" s="51" t="s">
         <v>123</v>
       </c>
@@ -6349,19 +6349,19 @@
     </row>
     <row r="81" spans="4:13">
       <c r="D81" s="19" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G81" s="48" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I81" s="38"/>
       <c r="J81" s="39" t="s">
-        <v>826</v>
-      </c>
-      <c r="K81" s="74"/>
+        <v>816</v>
+      </c>
+      <c r="K81" s="71"/>
       <c r="L81" s="51" t="s">
         <v>124</v>
       </c>
@@ -6369,19 +6369,19 @@
     </row>
     <row r="82" spans="4:13">
       <c r="D82" s="19" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G82" s="48" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="H82" s="45" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I82" s="38"/>
       <c r="J82" s="39" t="s">
-        <v>827</v>
-      </c>
-      <c r="K82" s="74"/>
+        <v>817</v>
+      </c>
+      <c r="K82" s="71"/>
       <c r="L82" s="51" t="s">
         <v>125</v>
       </c>
@@ -6389,19 +6389,19 @@
     </row>
     <row r="83" spans="4:13">
       <c r="D83" s="19" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="G83" s="48" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="H83" s="45" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I83" s="38"/>
       <c r="J83" s="39" t="s">
-        <v>828</v>
-      </c>
-      <c r="K83" s="74"/>
+        <v>818</v>
+      </c>
+      <c r="K83" s="71"/>
       <c r="L83" s="51" t="s">
         <v>126</v>
       </c>
@@ -6409,78 +6409,78 @@
     </row>
     <row r="84" spans="4:13">
       <c r="D84" s="19" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G84" s="48" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="H84" s="45" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I84" s="38"/>
       <c r="J84" s="39" t="s">
-        <v>829</v>
-      </c>
-      <c r="K84" s="74"/>
+        <v>819</v>
+      </c>
+      <c r="K84" s="71"/>
       <c r="L84" s="52" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="M84" s="15"/>
     </row>
     <row r="85" spans="4:13">
       <c r="D85" s="19" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G85" s="48" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I85" s="38"/>
       <c r="J85" s="39" t="s">
-        <v>830</v>
-      </c>
-      <c r="K85" s="75" t="s">
-        <v>990</v>
+        <v>820</v>
+      </c>
+      <c r="K85" s="72" t="s">
+        <v>980</v>
       </c>
       <c r="L85" s="50" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="M85" s="15"/>
     </row>
     <row r="86" spans="4:13">
       <c r="D86" s="19" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G86" s="48" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I86" s="38"/>
       <c r="J86" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="K86" s="75"/>
+        <v>334</v>
+      </c>
+      <c r="K86" s="72"/>
       <c r="L86" s="51" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="M86" s="15"/>
     </row>
     <row r="87" spans="4:13">
       <c r="G87" s="48" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="H87" s="45" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I87" s="38"/>
       <c r="J87" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="K87" s="75"/>
+        <v>335</v>
+      </c>
+      <c r="K87" s="72"/>
       <c r="L87" s="51" t="s">
         <v>127</v>
       </c>
@@ -6488,52 +6488,52 @@
     </row>
     <row r="88" spans="4:13">
       <c r="G88" s="48" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="H88" s="45" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I88" s="38"/>
       <c r="J88" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="K88" s="75"/>
+        <v>333</v>
+      </c>
+      <c r="K88" s="72"/>
       <c r="L88" s="52" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="M88" s="15"/>
     </row>
     <row r="89" spans="4:13">
       <c r="G89" s="48" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="H89" s="45" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I89" s="38"/>
       <c r="J89" s="39" t="s">
-        <v>831</v>
-      </c>
-      <c r="K89" s="76" t="s">
-        <v>991</v>
+        <v>821</v>
+      </c>
+      <c r="K89" s="73" t="s">
+        <v>981</v>
       </c>
       <c r="L89" s="50" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="M89" s="15"/>
     </row>
     <row r="90" spans="4:13">
       <c r="G90" s="48" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="H90" s="45" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I90" s="38"/>
       <c r="J90" s="39" t="s">
-        <v>832</v>
-      </c>
-      <c r="K90" s="76"/>
+        <v>822</v>
+      </c>
+      <c r="K90" s="73"/>
       <c r="L90" s="51" t="s">
         <v>128</v>
       </c>
@@ -6541,119 +6541,119 @@
     </row>
     <row r="91" spans="4:13">
       <c r="G91" s="48" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="H91" s="45" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I91" s="38"/>
       <c r="J91" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="K91" s="76"/>
+        <v>331</v>
+      </c>
+      <c r="K91" s="73"/>
       <c r="L91" s="51" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="M91" s="15"/>
     </row>
     <row r="92" spans="4:13" ht="28.8">
       <c r="G92" s="48" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="H92" s="45" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I92" s="38"/>
       <c r="J92" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="K92" s="76"/>
+        <v>332</v>
+      </c>
+      <c r="K92" s="73"/>
       <c r="L92" s="51" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="M92" s="15"/>
     </row>
     <row r="93" spans="4:13">
       <c r="G93" s="48" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="H93" s="45" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I93" s="38"/>
       <c r="J93" s="39" t="s">
-        <v>833</v>
-      </c>
-      <c r="K93" s="76"/>
+        <v>823</v>
+      </c>
+      <c r="K93" s="73"/>
       <c r="L93" s="51" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="M93" s="15"/>
     </row>
     <row r="94" spans="4:13">
       <c r="G94" s="48" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I94" s="38"/>
       <c r="J94" s="39" t="s">
-        <v>834</v>
-      </c>
-      <c r="K94" s="76"/>
+        <v>824</v>
+      </c>
+      <c r="K94" s="73"/>
       <c r="L94" s="51" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="M94" s="15"/>
     </row>
     <row r="95" spans="4:13" ht="28.8">
       <c r="G95" s="48" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I95" s="38"/>
       <c r="J95" s="39" t="s">
-        <v>835</v>
-      </c>
-      <c r="K95" s="76"/>
+        <v>825</v>
+      </c>
+      <c r="K95" s="73"/>
       <c r="L95" s="51" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="M95" s="15"/>
     </row>
     <row r="96" spans="4:13">
       <c r="G96" s="48" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I96" s="38"/>
       <c r="J96" s="39" t="s">
-        <v>836</v>
-      </c>
-      <c r="K96" s="76"/>
+        <v>826</v>
+      </c>
+      <c r="K96" s="73"/>
       <c r="L96" s="52" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="M96" s="15"/>
     </row>
     <row r="97" spans="7:13">
       <c r="G97" s="48" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="H97" s="45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I97" s="38"/>
       <c r="J97" s="39" t="s">
-        <v>837</v>
-      </c>
-      <c r="K97" s="68" t="s">
-        <v>992</v>
+        <v>827</v>
+      </c>
+      <c r="K97" s="76" t="s">
+        <v>982</v>
       </c>
       <c r="L97" s="50" t="s">
         <v>129</v>
@@ -6662,16 +6662,16 @@
     </row>
     <row r="98" spans="7:13" ht="28.8">
       <c r="G98" s="48" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="H98" s="45" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I98" s="38"/>
       <c r="J98" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="K98" s="68"/>
+        <v>336</v>
+      </c>
+      <c r="K98" s="76"/>
       <c r="L98" s="51" t="s">
         <v>130</v>
       </c>
@@ -6679,16 +6679,16 @@
     </row>
     <row r="99" spans="7:13">
       <c r="G99" s="48" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="H99" s="45" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I99" s="38"/>
       <c r="J99" s="39" t="s">
-        <v>838</v>
-      </c>
-      <c r="K99" s="68"/>
+        <v>828</v>
+      </c>
+      <c r="K99" s="76"/>
       <c r="L99" s="51" t="s">
         <v>131</v>
       </c>
@@ -6696,50 +6696,50 @@
     </row>
     <row r="100" spans="7:13">
       <c r="G100" s="48" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="H100" s="45" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I100" s="38"/>
       <c r="J100" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="K100" s="68"/>
+        <v>337</v>
+      </c>
+      <c r="K100" s="76"/>
       <c r="L100" s="51" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="M100" s="15"/>
     </row>
     <row r="101" spans="7:13">
       <c r="G101" s="48" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I101" s="38"/>
       <c r="J101" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="K101" s="68"/>
+        <v>316</v>
+      </c>
+      <c r="K101" s="76"/>
       <c r="L101" s="52" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="M101" s="15"/>
     </row>
     <row r="102" spans="7:13" ht="28.8">
       <c r="G102" s="48" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I102" s="38"/>
       <c r="J102" s="39" t="s">
-        <v>839</v>
-      </c>
-      <c r="K102" s="69" t="s">
+        <v>829</v>
+      </c>
+      <c r="K102" s="74" t="s">
         <v>29</v>
       </c>
       <c r="L102" s="50" t="s">
@@ -6749,16 +6749,16 @@
     </row>
     <row r="103" spans="7:13">
       <c r="G103" s="48" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H103" s="45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I103" s="38"/>
       <c r="J103" s="39" t="s">
-        <v>840</v>
-      </c>
-      <c r="K103" s="69"/>
+        <v>830</v>
+      </c>
+      <c r="K103" s="74"/>
       <c r="L103" s="51" t="s">
         <v>133</v>
       </c>
@@ -6766,16 +6766,16 @@
     </row>
     <row r="104" spans="7:13">
       <c r="G104" s="48" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="H104" s="45" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I104" s="38"/>
       <c r="J104" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="K104" s="69"/>
+        <v>311</v>
+      </c>
+      <c r="K104" s="74"/>
       <c r="L104" s="51" t="s">
         <v>134</v>
       </c>
@@ -6783,16 +6783,16 @@
     </row>
     <row r="105" spans="7:13">
       <c r="G105" s="48" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I105" s="38"/>
       <c r="J105" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="K105" s="69"/>
+        <v>831</v>
+      </c>
+      <c r="K105" s="74"/>
       <c r="L105" s="51" t="s">
         <v>135</v>
       </c>
@@ -6800,16 +6800,16 @@
     </row>
     <row r="106" spans="7:13">
       <c r="G106" s="48" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I106" s="38"/>
       <c r="J106" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="K106" s="69"/>
+        <v>310</v>
+      </c>
+      <c r="K106" s="74"/>
       <c r="L106" s="51" t="s">
         <v>136</v>
       </c>
@@ -6817,16 +6817,16 @@
     </row>
     <row r="107" spans="7:13" ht="28.8">
       <c r="G107" s="48" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="H107" s="45" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I107" s="38"/>
       <c r="J107" s="39" t="s">
-        <v>842</v>
-      </c>
-      <c r="K107" s="69"/>
+        <v>832</v>
+      </c>
+      <c r="K107" s="74"/>
       <c r="L107" s="51" t="s">
         <v>137</v>
       </c>
@@ -6834,16 +6834,16 @@
     </row>
     <row r="108" spans="7:13">
       <c r="G108" s="48" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="H108" s="45" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I108" s="38"/>
       <c r="J108" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="K108" s="69"/>
+        <v>315</v>
+      </c>
+      <c r="K108" s="74"/>
       <c r="L108" s="51" t="s">
         <v>138</v>
       </c>
@@ -6851,16 +6851,16 @@
     </row>
     <row r="109" spans="7:13">
       <c r="G109" s="48" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I109" s="38"/>
       <c r="J109" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="K109" s="69"/>
+        <v>321</v>
+      </c>
+      <c r="K109" s="74"/>
       <c r="L109" s="51" t="s">
         <v>139</v>
       </c>
@@ -6868,16 +6868,16 @@
     </row>
     <row r="110" spans="7:13">
       <c r="G110" s="48" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I110" s="38"/>
       <c r="J110" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="K110" s="69"/>
+        <v>317</v>
+      </c>
+      <c r="K110" s="74"/>
       <c r="L110" s="51" t="s">
         <v>140</v>
       </c>
@@ -6885,16 +6885,16 @@
     </row>
     <row r="111" spans="7:13">
       <c r="G111" s="48" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I111" s="38"/>
       <c r="J111" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="K111" s="69"/>
+        <v>314</v>
+      </c>
+      <c r="K111" s="74"/>
       <c r="L111" s="51" t="s">
         <v>141</v>
       </c>
@@ -6902,16 +6902,16 @@
     </row>
     <row r="112" spans="7:13">
       <c r="G112" s="48" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="H112" s="45" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I112" s="38"/>
       <c r="J112" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="K112" s="69"/>
+        <v>313</v>
+      </c>
+      <c r="K112" s="74"/>
       <c r="L112" s="51" t="s">
         <v>142</v>
       </c>
@@ -6919,16 +6919,16 @@
     </row>
     <row r="113" spans="7:13">
       <c r="G113" s="48" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="H113" s="45" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I113" s="38"/>
       <c r="J113" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="K113" s="69"/>
+        <v>318</v>
+      </c>
+      <c r="K113" s="74"/>
       <c r="L113" s="51" t="s">
         <v>143</v>
       </c>
@@ -6936,16 +6936,16 @@
     </row>
     <row r="114" spans="7:13" ht="28.8">
       <c r="G114" s="48" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I114" s="38"/>
       <c r="J114" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="K114" s="69"/>
+        <v>320</v>
+      </c>
+      <c r="K114" s="74"/>
       <c r="L114" s="51" t="s">
         <v>144</v>
       </c>
@@ -6953,16 +6953,16 @@
     </row>
     <row r="115" spans="7:13">
       <c r="G115" s="48" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="H115" s="45" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I115" s="38"/>
       <c r="J115" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="K115" s="69"/>
+        <v>319</v>
+      </c>
+      <c r="K115" s="74"/>
       <c r="L115" s="51" t="s">
         <v>145</v>
       </c>
@@ -6970,16 +6970,16 @@
     </row>
     <row r="116" spans="7:13">
       <c r="G116" s="48" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="H116" s="45" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I116" s="38"/>
       <c r="J116" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="K116" s="69"/>
+        <v>312</v>
+      </c>
+      <c r="K116" s="74"/>
       <c r="L116" s="51" t="s">
         <v>146</v>
       </c>
@@ -6987,14 +6987,14 @@
     </row>
     <row r="117" spans="7:13">
       <c r="G117" s="48" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="H117" s="45" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I117" s="38"/>
       <c r="J117" s="39"/>
-      <c r="K117" s="69"/>
+      <c r="K117" s="74"/>
       <c r="L117" s="51" t="s">
         <v>147</v>
       </c>
@@ -7002,14 +7002,14 @@
     </row>
     <row r="118" spans="7:13" ht="28.8">
       <c r="G118" s="48" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="H118" s="45" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I118" s="38"/>
       <c r="J118" s="26"/>
-      <c r="K118" s="69"/>
+      <c r="K118" s="74"/>
       <c r="L118" s="51" t="s">
         <v>148</v>
       </c>
@@ -7017,14 +7017,14 @@
     </row>
     <row r="119" spans="7:13">
       <c r="G119" s="48" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="H119" s="45" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I119" s="38"/>
       <c r="J119" s="26"/>
-      <c r="K119" s="69"/>
+      <c r="K119" s="74"/>
       <c r="L119" s="51" t="s">
         <v>149</v>
       </c>
@@ -7032,14 +7032,14 @@
     </row>
     <row r="120" spans="7:13">
       <c r="G120" s="48" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="H120" s="45" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I120" s="38"/>
       <c r="J120" s="26"/>
-      <c r="K120" s="69"/>
+      <c r="K120" s="74"/>
       <c r="L120" s="51" t="s">
         <v>150</v>
       </c>
@@ -7047,14 +7047,14 @@
     </row>
     <row r="121" spans="7:13">
       <c r="G121" s="48" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="H121" s="45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I121" s="38"/>
       <c r="J121" s="26"/>
-      <c r="K121" s="69"/>
+      <c r="K121" s="74"/>
       <c r="L121" s="51" t="s">
         <v>151</v>
       </c>
@@ -7062,75 +7062,75 @@
     </row>
     <row r="122" spans="7:13">
       <c r="G122" s="48" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H122" s="45" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I122" s="38"/>
       <c r="J122" s="26"/>
-      <c r="K122" s="69"/>
+      <c r="K122" s="74"/>
       <c r="L122" s="51" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="M122" s="15"/>
     </row>
     <row r="123" spans="7:13" ht="28.8">
       <c r="G123" s="48" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="H123" s="45" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I123" s="38"/>
       <c r="J123" s="26"/>
-      <c r="K123" s="69"/>
+      <c r="K123" s="74"/>
       <c r="L123" s="51" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="M123" s="15"/>
     </row>
     <row r="124" spans="7:13">
       <c r="G124" s="48" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I124" s="38"/>
       <c r="J124" s="26"/>
-      <c r="K124" s="69"/>
+      <c r="K124" s="74"/>
       <c r="L124" s="51" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="M124" s="15"/>
     </row>
     <row r="125" spans="7:13" ht="28.8">
       <c r="G125" s="48" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="H125" s="45" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I125" s="38"/>
       <c r="J125" s="26"/>
-      <c r="K125" s="69"/>
+      <c r="K125" s="74"/>
       <c r="L125" s="52" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="M125" s="15"/>
     </row>
     <row r="126" spans="7:13">
       <c r="G126" s="48" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="H126" s="45" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I126" s="38"/>
       <c r="J126" s="26"/>
-      <c r="K126" s="70" t="s">
-        <v>781</v>
+      <c r="K126" s="75" t="s">
+        <v>771</v>
       </c>
       <c r="L126" s="50" t="s">
         <v>152</v>
@@ -7139,14 +7139,14 @@
     </row>
     <row r="127" spans="7:13" ht="28.8">
       <c r="G127" s="48" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H127" s="45" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I127" s="38"/>
       <c r="J127" s="26"/>
-      <c r="K127" s="70"/>
+      <c r="K127" s="75"/>
       <c r="L127" s="51" t="s">
         <v>153</v>
       </c>
@@ -7154,14 +7154,14 @@
     </row>
     <row r="128" spans="7:13">
       <c r="G128" s="48" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H128" s="45" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I128" s="38"/>
       <c r="J128" s="26"/>
-      <c r="K128" s="70"/>
+      <c r="K128" s="75"/>
       <c r="L128" s="51" t="s">
         <v>154</v>
       </c>
@@ -7169,14 +7169,14 @@
     </row>
     <row r="129" spans="7:13" ht="28.8">
       <c r="G129" s="48" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="H129" s="45" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I129" s="38"/>
       <c r="J129" s="26"/>
-      <c r="K129" s="70"/>
+      <c r="K129" s="75"/>
       <c r="L129" s="51" t="s">
         <v>155</v>
       </c>
@@ -7184,14 +7184,14 @@
     </row>
     <row r="130" spans="7:13" ht="28.8">
       <c r="G130" s="48" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="H130" s="45" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I130" s="38"/>
       <c r="J130" s="26"/>
-      <c r="K130" s="70"/>
+      <c r="K130" s="75"/>
       <c r="L130" s="51" t="s">
         <v>156</v>
       </c>
@@ -7199,14 +7199,14 @@
     </row>
     <row r="131" spans="7:13">
       <c r="G131" s="48" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H131" s="45" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I131" s="38"/>
       <c r="J131" s="26"/>
-      <c r="K131" s="70"/>
+      <c r="K131" s="75"/>
       <c r="L131" s="51" t="s">
         <v>157</v>
       </c>
@@ -7214,14 +7214,14 @@
     </row>
     <row r="132" spans="7:13">
       <c r="G132" s="48" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="H132" s="45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I132" s="38"/>
       <c r="J132" s="26"/>
-      <c r="K132" s="70"/>
+      <c r="K132" s="75"/>
       <c r="L132" s="51" t="s">
         <v>158</v>
       </c>
@@ -7229,14 +7229,14 @@
     </row>
     <row r="133" spans="7:13">
       <c r="G133" s="48" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H133" s="45" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I133" s="38"/>
       <c r="J133" s="26"/>
-      <c r="K133" s="70"/>
+      <c r="K133" s="75"/>
       <c r="L133" s="51" t="s">
         <v>159</v>
       </c>
@@ -7244,14 +7244,14 @@
     </row>
     <row r="134" spans="7:13">
       <c r="G134" s="48" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="H134" s="45" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I134" s="38"/>
       <c r="J134" s="26"/>
-      <c r="K134" s="70"/>
+      <c r="K134" s="75"/>
       <c r="L134" s="51" t="s">
         <v>160</v>
       </c>
@@ -7259,59 +7259,59 @@
     </row>
     <row r="135" spans="7:13">
       <c r="G135" s="48" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="H135" s="45" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I135" s="38"/>
       <c r="J135" s="26"/>
-      <c r="K135" s="70"/>
+      <c r="K135" s="75"/>
       <c r="L135" s="51" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="M135" s="15"/>
     </row>
     <row r="136" spans="7:13">
       <c r="G136" s="48" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="H136" s="45" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I136" s="38"/>
       <c r="J136" s="26"/>
-      <c r="K136" s="70"/>
+      <c r="K136" s="75"/>
       <c r="L136" s="51" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="M136" s="15"/>
     </row>
     <row r="137" spans="7:13">
       <c r="G137" s="48" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="H137" s="45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I137" s="38"/>
       <c r="J137" s="26"/>
-      <c r="K137" s="70"/>
+      <c r="K137" s="75"/>
       <c r="L137" s="52" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="M137" s="15"/>
     </row>
     <row r="138" spans="7:13">
       <c r="G138" s="48" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="H138" s="45" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I138" s="38"/>
       <c r="J138" s="26"/>
-      <c r="K138" s="71" t="s">
+      <c r="K138" s="68" t="s">
         <v>66</v>
       </c>
       <c r="L138" s="50" t="s">
@@ -7321,29 +7321,29 @@
     </row>
     <row r="139" spans="7:13">
       <c r="G139" s="48" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="H139" s="45" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I139" s="38"/>
       <c r="J139" s="26"/>
-      <c r="K139" s="71"/>
+      <c r="K139" s="68"/>
       <c r="L139" s="51" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="M139" s="15"/>
     </row>
     <row r="140" spans="7:13">
       <c r="G140" s="48" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="H140" s="45" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I140" s="38"/>
       <c r="J140" s="26"/>
-      <c r="K140" s="71"/>
+      <c r="K140" s="68"/>
       <c r="L140" s="51" t="s">
         <v>162</v>
       </c>
@@ -7351,14 +7351,14 @@
     </row>
     <row r="141" spans="7:13">
       <c r="G141" s="48" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="H141" s="45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I141" s="38"/>
       <c r="J141" s="26"/>
-      <c r="K141" s="71"/>
+      <c r="K141" s="68"/>
       <c r="L141" s="51" t="s">
         <v>163</v>
       </c>
@@ -7366,76 +7366,76 @@
     </row>
     <row r="142" spans="7:13">
       <c r="G142" s="48" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="H142" s="45" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="26"/>
-      <c r="K142" s="71"/>
+      <c r="K142" s="68"/>
       <c r="L142" s="51" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="M142" s="15"/>
     </row>
     <row r="143" spans="7:13">
       <c r="G143" s="48" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="H143" s="45" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="26"/>
-      <c r="K143" s="71"/>
+      <c r="K143" s="68"/>
       <c r="L143" s="51" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="M143" s="15"/>
     </row>
     <row r="144" spans="7:13">
       <c r="G144" s="48" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="H144" s="45" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26"/>
-      <c r="K144" s="71"/>
+      <c r="K144" s="68"/>
       <c r="L144" s="52" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="M144" s="15"/>
     </row>
     <row r="145" spans="7:13">
       <c r="G145" s="48" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="H145" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I145" s="26"/>
       <c r="J145" s="26"/>
       <c r="K145" s="49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L145" s="37" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="M145" s="15"/>
     </row>
     <row r="146" spans="7:13">
       <c r="G146" s="48" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H146" s="45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I146" s="26"/>
       <c r="J146" s="26"/>
-      <c r="K146" s="73" t="s">
+      <c r="K146" s="70" t="s">
         <v>67</v>
       </c>
       <c r="L146" s="50" t="s">
@@ -7445,14 +7445,14 @@
     </row>
     <row r="147" spans="7:13">
       <c r="G147" s="48" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="H147" s="45" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I147" s="26"/>
       <c r="J147" s="26"/>
-      <c r="K147" s="73"/>
+      <c r="K147" s="70"/>
       <c r="L147" s="51" t="s">
         <v>165</v>
       </c>
@@ -7460,14 +7460,14 @@
     </row>
     <row r="148" spans="7:13">
       <c r="G148" s="48" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="H148" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I148" s="26"/>
       <c r="J148" s="26"/>
-      <c r="K148" s="73"/>
+      <c r="K148" s="70"/>
       <c r="L148" s="51" t="s">
         <v>166</v>
       </c>
@@ -7475,25 +7475,25 @@
     </row>
     <row r="149" spans="7:13">
       <c r="G149" s="48" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H149" s="45" t="s">
-        <v>523</v>
-      </c>
-      <c r="K149" s="73"/>
+        <v>520</v>
+      </c>
+      <c r="K149" s="70"/>
       <c r="L149" s="52" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="M149" s="15"/>
     </row>
     <row r="150" spans="7:13">
       <c r="G150" s="48" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="H150" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="K150" s="74" t="s">
+        <v>521</v>
+      </c>
+      <c r="K150" s="71" t="s">
         <v>68</v>
       </c>
       <c r="L150" s="50" t="s">
@@ -7503,12 +7503,12 @@
     </row>
     <row r="151" spans="7:13">
       <c r="G151" s="48" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="H151" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="K151" s="74"/>
+        <v>522</v>
+      </c>
+      <c r="K151" s="71"/>
       <c r="L151" s="51" t="s">
         <v>168</v>
       </c>
@@ -7516,25 +7516,25 @@
     </row>
     <row r="152" spans="7:13">
       <c r="G152" s="48" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="H152" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="K152" s="74"/>
+        <v>523</v>
+      </c>
+      <c r="K152" s="71"/>
       <c r="L152" s="51" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="M152" s="15"/>
     </row>
     <row r="153" spans="7:13">
       <c r="G153" s="48" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="H153" s="45" t="s">
-        <v>527</v>
-      </c>
-      <c r="K153" s="74"/>
+        <v>524</v>
+      </c>
+      <c r="K153" s="71"/>
       <c r="L153" s="51" t="s">
         <v>169</v>
       </c>
@@ -7542,12 +7542,12 @@
     </row>
     <row r="154" spans="7:13">
       <c r="G154" s="48" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="H154" s="45" t="s">
-        <v>528</v>
-      </c>
-      <c r="K154" s="74"/>
+        <v>525</v>
+      </c>
+      <c r="K154" s="71"/>
       <c r="L154" s="51" t="s">
         <v>170</v>
       </c>
@@ -7555,12 +7555,12 @@
     </row>
     <row r="155" spans="7:13" ht="43.2">
       <c r="G155" s="48" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="H155" s="45" t="s">
-        <v>529</v>
-      </c>
-      <c r="K155" s="74"/>
+        <v>526</v>
+      </c>
+      <c r="K155" s="71"/>
       <c r="L155" s="51" t="s">
         <v>171</v>
       </c>
@@ -7568,12 +7568,12 @@
     </row>
     <row r="156" spans="7:13">
       <c r="G156" s="48" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="H156" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="K156" s="74"/>
+        <v>527</v>
+      </c>
+      <c r="K156" s="71"/>
       <c r="L156" s="51" t="s">
         <v>172</v>
       </c>
@@ -7581,25 +7581,25 @@
     </row>
     <row r="157" spans="7:13" ht="28.8">
       <c r="G157" s="48" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="H157" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="K157" s="74"/>
+        <v>528</v>
+      </c>
+      <c r="K157" s="71"/>
       <c r="L157" s="51" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="M157" s="15"/>
     </row>
     <row r="158" spans="7:13">
       <c r="G158" s="48" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="H158" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="K158" s="74"/>
+        <v>529</v>
+      </c>
+      <c r="K158" s="71"/>
       <c r="L158" s="51" t="s">
         <v>173</v>
       </c>
@@ -7607,12 +7607,12 @@
     </row>
     <row r="159" spans="7:13" ht="28.8">
       <c r="G159" s="48" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="H159" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="K159" s="74"/>
+        <v>530</v>
+      </c>
+      <c r="K159" s="71"/>
       <c r="L159" s="51" t="s">
         <v>174</v>
       </c>
@@ -7620,52 +7620,52 @@
     </row>
     <row r="160" spans="7:13">
       <c r="G160" s="48" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="H160" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="K160" s="74"/>
+        <v>531</v>
+      </c>
+      <c r="K160" s="71"/>
       <c r="L160" s="51" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="M160" s="15"/>
     </row>
     <row r="161" spans="7:13" ht="28.8">
       <c r="G161" s="48" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="H161" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="K161" s="74"/>
+        <v>532</v>
+      </c>
+      <c r="K161" s="71"/>
       <c r="L161" s="51" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="M161" s="15"/>
     </row>
     <row r="162" spans="7:13" ht="28.8">
       <c r="G162" s="48" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="H162" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="K162" s="74"/>
+        <v>533</v>
+      </c>
+      <c r="K162" s="71"/>
       <c r="L162" s="52" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="M162" s="15"/>
     </row>
     <row r="163" spans="7:13">
       <c r="G163" s="48" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="H163" s="45" t="s">
-        <v>537</v>
-      </c>
-      <c r="K163" s="75" t="s">
-        <v>993</v>
+        <v>534</v>
+      </c>
+      <c r="K163" s="72" t="s">
+        <v>983</v>
       </c>
       <c r="L163" s="50" t="s">
         <v>175</v>
@@ -7674,12 +7674,12 @@
     </row>
     <row r="164" spans="7:13">
       <c r="G164" s="48" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="H164" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="K164" s="75"/>
+        <v>535</v>
+      </c>
+      <c r="K164" s="72"/>
       <c r="L164" s="51" t="s">
         <v>176</v>
       </c>
@@ -7687,25 +7687,25 @@
     </row>
     <row r="165" spans="7:13" ht="28.8">
       <c r="G165" s="48" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="H165" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="K165" s="75"/>
+        <v>536</v>
+      </c>
+      <c r="K165" s="72"/>
       <c r="L165" s="51" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="M165" s="15"/>
     </row>
     <row r="166" spans="7:13">
       <c r="G166" s="48" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="H166" s="45" t="s">
-        <v>540</v>
-      </c>
-      <c r="K166" s="75"/>
+        <v>537</v>
+      </c>
+      <c r="K166" s="72"/>
       <c r="L166" s="51" t="s">
         <v>177</v>
       </c>
@@ -7713,12 +7713,12 @@
     </row>
     <row r="167" spans="7:13">
       <c r="G167" s="48" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="H167" s="45" t="s">
-        <v>541</v>
-      </c>
-      <c r="K167" s="75"/>
+        <v>538</v>
+      </c>
+      <c r="K167" s="72"/>
       <c r="L167" s="51" t="s">
         <v>178</v>
       </c>
@@ -7726,12 +7726,12 @@
     </row>
     <row r="168" spans="7:13">
       <c r="G168" s="48" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="H168" s="45" t="s">
-        <v>542</v>
-      </c>
-      <c r="K168" s="75"/>
+        <v>539</v>
+      </c>
+      <c r="K168" s="72"/>
       <c r="L168" s="51" t="s">
         <v>179</v>
       </c>
@@ -7739,12 +7739,12 @@
     </row>
     <row r="169" spans="7:13" ht="28.8">
       <c r="G169" s="48" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="H169" s="45" t="s">
-        <v>543</v>
-      </c>
-      <c r="K169" s="75"/>
+        <v>540</v>
+      </c>
+      <c r="K169" s="72"/>
       <c r="L169" s="51" t="s">
         <v>180</v>
       </c>
@@ -7752,12 +7752,12 @@
     </row>
     <row r="170" spans="7:13">
       <c r="G170" s="48" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="H170" s="45" t="s">
-        <v>544</v>
-      </c>
-      <c r="K170" s="75"/>
+        <v>541</v>
+      </c>
+      <c r="K170" s="72"/>
       <c r="L170" s="51" t="s">
         <v>181</v>
       </c>
@@ -7765,32 +7765,32 @@
     </row>
     <row r="171" spans="7:13" ht="28.8">
       <c r="G171" s="48" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="H171" s="45" t="s">
-        <v>545</v>
-      </c>
-      <c r="K171" s="75"/>
+        <v>542</v>
+      </c>
+      <c r="K171" s="72"/>
       <c r="L171" s="51" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="M171" s="15"/>
     </row>
     <row r="172" spans="7:13">
       <c r="G172" s="46" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="H172" s="47" t="s">
-        <v>546</v>
-      </c>
-      <c r="K172" s="75"/>
+        <v>543</v>
+      </c>
+      <c r="K172" s="72"/>
       <c r="L172" s="52" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="M172" s="15"/>
     </row>
     <row r="173" spans="7:13">
-      <c r="K173" s="76" t="s">
+      <c r="K173" s="73" t="s">
         <v>69</v>
       </c>
       <c r="L173" s="50" t="s">
@@ -7799,58 +7799,58 @@
       <c r="M173" s="15"/>
     </row>
     <row r="174" spans="7:13">
-      <c r="K174" s="76"/>
+      <c r="K174" s="73"/>
       <c r="L174" s="51" t="s">
         <v>183</v>
       </c>
       <c r="M174" s="15"/>
     </row>
     <row r="175" spans="7:13">
-      <c r="K175" s="76"/>
+      <c r="K175" s="73"/>
       <c r="L175" s="51" t="s">
         <v>184</v>
       </c>
       <c r="M175" s="15"/>
     </row>
     <row r="176" spans="7:13">
-      <c r="K176" s="76"/>
+      <c r="K176" s="73"/>
       <c r="L176" s="51" t="s">
         <v>185</v>
       </c>
       <c r="M176" s="15"/>
     </row>
     <row r="177" spans="11:13">
-      <c r="K177" s="76"/>
+      <c r="K177" s="73"/>
       <c r="L177" s="51" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="M177" s="15"/>
     </row>
     <row r="178" spans="11:13">
-      <c r="K178" s="76"/>
+      <c r="K178" s="73"/>
       <c r="L178" s="52" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="M178" s="15"/>
     </row>
     <row r="179" spans="11:13">
-      <c r="K179" s="68" t="s">
+      <c r="K179" s="76" t="s">
         <v>70</v>
       </c>
       <c r="L179" s="50" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="M179" s="15"/>
     </row>
     <row r="180" spans="11:13">
-      <c r="K180" s="68"/>
+      <c r="K180" s="76"/>
       <c r="L180" s="52" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="M180" s="15"/>
     </row>
     <row r="181" spans="11:13">
-      <c r="K181" s="69" t="s">
+      <c r="K181" s="74" t="s">
         <v>71</v>
       </c>
       <c r="L181" s="50" t="s">
@@ -7859,121 +7859,121 @@
       <c r="M181" s="15"/>
     </row>
     <row r="182" spans="11:13">
-      <c r="K182" s="69"/>
+      <c r="K182" s="74"/>
       <c r="L182" s="51" t="s">
         <v>187</v>
       </c>
       <c r="M182" s="15"/>
     </row>
     <row r="183" spans="11:13">
-      <c r="K183" s="69"/>
+      <c r="K183" s="74"/>
       <c r="L183" s="51" t="s">
         <v>188</v>
       </c>
       <c r="M183" s="15"/>
     </row>
     <row r="184" spans="11:13">
-      <c r="K184" s="69"/>
+      <c r="K184" s="74"/>
       <c r="L184" s="51" t="s">
         <v>189</v>
       </c>
       <c r="M184" s="15"/>
     </row>
     <row r="185" spans="11:13">
-      <c r="K185" s="69"/>
+      <c r="K185" s="74"/>
       <c r="L185" s="51" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="M185" s="15"/>
     </row>
     <row r="186" spans="11:13">
-      <c r="K186" s="69"/>
+      <c r="K186" s="74"/>
       <c r="L186" s="51" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="M186" s="15"/>
     </row>
     <row r="187" spans="11:13">
-      <c r="K187" s="69"/>
+      <c r="K187" s="74"/>
       <c r="L187" s="51" t="s">
         <v>190</v>
       </c>
       <c r="M187" s="15"/>
     </row>
     <row r="188" spans="11:13">
-      <c r="K188" s="69"/>
+      <c r="K188" s="74"/>
       <c r="L188" s="51" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="M188" s="15"/>
     </row>
     <row r="189" spans="11:13">
-      <c r="K189" s="69"/>
+      <c r="K189" s="74"/>
       <c r="L189" s="51" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="M189" s="15"/>
     </row>
     <row r="190" spans="11:13">
-      <c r="K190" s="69"/>
+      <c r="K190" s="74"/>
       <c r="L190" s="51" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="M190" s="15"/>
     </row>
     <row r="191" spans="11:13">
-      <c r="K191" s="69"/>
+      <c r="K191" s="74"/>
       <c r="L191" s="52" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="M191" s="15"/>
     </row>
     <row r="192" spans="11:13">
-      <c r="K192" s="70" t="s">
-        <v>994</v>
+      <c r="K192" s="75" t="s">
+        <v>984</v>
       </c>
       <c r="L192" s="50" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="M192" s="15"/>
     </row>
     <row r="193" spans="11:13">
-      <c r="K193" s="70"/>
+      <c r="K193" s="75"/>
       <c r="L193" s="51" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="M193" s="15"/>
     </row>
     <row r="194" spans="11:13">
-      <c r="K194" s="70"/>
+      <c r="K194" s="75"/>
       <c r="L194" s="51" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="M194" s="15"/>
     </row>
     <row r="195" spans="11:13">
-      <c r="K195" s="70"/>
+      <c r="K195" s="75"/>
       <c r="L195" s="51" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="M195" s="15"/>
     </row>
     <row r="196" spans="11:13">
-      <c r="K196" s="70"/>
+      <c r="K196" s="75"/>
       <c r="L196" s="51" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="M196" s="15"/>
     </row>
     <row r="197" spans="11:13">
-      <c r="K197" s="70"/>
+      <c r="K197" s="75"/>
       <c r="L197" s="52" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="M197" s="15"/>
     </row>
     <row r="198" spans="11:13">
-      <c r="K198" s="71" t="s">
+      <c r="K198" s="68" t="s">
         <v>72</v>
       </c>
       <c r="L198" s="50" t="s">
@@ -7982,84 +7982,84 @@
       <c r="M198" s="15"/>
     </row>
     <row r="199" spans="11:13">
-      <c r="K199" s="71"/>
+      <c r="K199" s="68"/>
       <c r="L199" s="51" t="s">
         <v>192</v>
       </c>
       <c r="M199" s="15"/>
     </row>
     <row r="200" spans="11:13">
-      <c r="K200" s="71"/>
+      <c r="K200" s="68"/>
       <c r="L200" s="51" t="s">
         <v>193</v>
       </c>
       <c r="M200" s="15"/>
     </row>
     <row r="201" spans="11:13">
-      <c r="K201" s="71"/>
+      <c r="K201" s="68"/>
       <c r="L201" s="51" t="s">
         <v>194</v>
       </c>
       <c r="M201" s="15"/>
     </row>
     <row r="202" spans="11:13">
-      <c r="K202" s="71"/>
+      <c r="K202" s="68"/>
       <c r="L202" s="51" t="s">
         <v>195</v>
       </c>
       <c r="M202" s="15"/>
     </row>
     <row r="203" spans="11:13">
-      <c r="K203" s="71"/>
+      <c r="K203" s="68"/>
       <c r="L203" s="51" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="M203" s="15"/>
     </row>
     <row r="204" spans="11:13">
-      <c r="K204" s="71"/>
+      <c r="K204" s="68"/>
       <c r="L204" s="51" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="M204" s="15"/>
     </row>
     <row r="205" spans="11:13">
-      <c r="K205" s="71"/>
+      <c r="K205" s="68"/>
       <c r="L205" s="51" t="s">
         <v>196</v>
       </c>
       <c r="M205" s="15"/>
     </row>
     <row r="206" spans="11:13">
-      <c r="K206" s="71"/>
+      <c r="K206" s="68"/>
       <c r="L206" s="51" t="s">
         <v>197</v>
       </c>
       <c r="M206" s="15"/>
     </row>
     <row r="207" spans="11:13">
-      <c r="K207" s="71"/>
+      <c r="K207" s="68"/>
       <c r="L207" s="51" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="M207" s="15"/>
     </row>
     <row r="208" spans="11:13">
-      <c r="K208" s="71"/>
+      <c r="K208" s="68"/>
       <c r="L208" s="51" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="M208" s="15"/>
     </row>
     <row r="209" spans="11:13">
-      <c r="K209" s="71"/>
+      <c r="K209" s="68"/>
       <c r="L209" s="52" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="M209" s="15"/>
     </row>
     <row r="210" spans="11:13">
-      <c r="K210" s="72" t="s">
+      <c r="K210" s="69" t="s">
         <v>73</v>
       </c>
       <c r="L210" s="50" t="s">
@@ -8068,369 +8068,369 @@
       <c r="M210" s="15"/>
     </row>
     <row r="211" spans="11:13">
-      <c r="K211" s="72"/>
+      <c r="K211" s="69"/>
       <c r="L211" s="51" t="s">
         <v>199</v>
       </c>
       <c r="M211" s="15"/>
     </row>
     <row r="212" spans="11:13">
-      <c r="K212" s="72"/>
+      <c r="K212" s="69"/>
       <c r="L212" s="51" t="s">
         <v>200</v>
       </c>
       <c r="M212" s="15"/>
     </row>
     <row r="213" spans="11:13">
-      <c r="K213" s="72"/>
+      <c r="K213" s="69"/>
       <c r="L213" s="51" t="s">
         <v>201</v>
       </c>
       <c r="M213" s="15"/>
     </row>
     <row r="214" spans="11:13">
-      <c r="K214" s="72"/>
+      <c r="K214" s="69"/>
       <c r="L214" s="51" t="s">
         <v>202</v>
       </c>
       <c r="M214" s="15"/>
     </row>
     <row r="215" spans="11:13">
-      <c r="K215" s="72"/>
+      <c r="K215" s="69"/>
       <c r="L215" s="51" t="s">
         <v>203</v>
       </c>
       <c r="M215" s="15"/>
     </row>
     <row r="216" spans="11:13">
-      <c r="K216" s="72"/>
+      <c r="K216" s="69"/>
       <c r="L216" s="51" t="s">
         <v>204</v>
       </c>
       <c r="M216" s="15"/>
     </row>
     <row r="217" spans="11:13">
-      <c r="K217" s="72"/>
+      <c r="K217" s="69"/>
       <c r="L217" s="51" t="s">
+        <v>927</v>
+      </c>
+      <c r="M217" s="15"/>
+    </row>
+    <row r="218" spans="11:13">
+      <c r="K218" s="69"/>
+      <c r="L218" s="52" t="s">
+        <v>928</v>
+      </c>
+      <c r="M218" s="15"/>
+    </row>
+    <row r="219" spans="11:13">
+      <c r="K219" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L219" s="50" t="s">
+        <v>929</v>
+      </c>
+      <c r="M219" s="15"/>
+    </row>
+    <row r="220" spans="11:13">
+      <c r="K220" s="70"/>
+      <c r="L220" s="51" t="s">
+        <v>930</v>
+      </c>
+      <c r="M220" s="15"/>
+    </row>
+    <row r="221" spans="11:13">
+      <c r="K221" s="70"/>
+      <c r="L221" s="51" t="s">
+        <v>931</v>
+      </c>
+      <c r="M221" s="15"/>
+    </row>
+    <row r="222" spans="11:13">
+      <c r="K222" s="70"/>
+      <c r="L222" s="51" t="s">
+        <v>932</v>
+      </c>
+      <c r="M222" s="15"/>
+    </row>
+    <row r="223" spans="11:13">
+      <c r="K223" s="70"/>
+      <c r="L223" s="51" t="s">
+        <v>933</v>
+      </c>
+      <c r="M223" s="15"/>
+    </row>
+    <row r="224" spans="11:13">
+      <c r="K224" s="70"/>
+      <c r="L224" s="51" t="s">
+        <v>934</v>
+      </c>
+      <c r="M224" s="15"/>
+    </row>
+    <row r="225" spans="11:13">
+      <c r="K225" s="70"/>
+      <c r="L225" s="51" t="s">
+        <v>935</v>
+      </c>
+      <c r="M225" s="15"/>
+    </row>
+    <row r="226" spans="11:13">
+      <c r="K226" s="70"/>
+      <c r="L226" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="M226" s="15"/>
+    </row>
+    <row r="227" spans="11:13">
+      <c r="K227" s="71" t="s">
+        <v>985</v>
+      </c>
+      <c r="L227" s="50" t="s">
         <v>937</v>
       </c>
-      <c r="M217" s="15"/>
-    </row>
-    <row r="218" spans="11:13">
-      <c r="K218" s="72"/>
-      <c r="L218" s="52" t="s">
+      <c r="M227" s="15"/>
+    </row>
+    <row r="228" spans="11:13">
+      <c r="K228" s="71"/>
+      <c r="L228" s="51" t="s">
         <v>938</v>
       </c>
-      <c r="M218" s="15"/>
-    </row>
-    <row r="219" spans="11:13">
-      <c r="K219" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="L219" s="50" t="s">
+      <c r="M228" s="15"/>
+    </row>
+    <row r="229" spans="11:13">
+      <c r="K229" s="71"/>
+      <c r="L229" s="52" t="s">
         <v>939</v>
       </c>
-      <c r="M219" s="15"/>
-    </row>
-    <row r="220" spans="11:13">
-      <c r="K220" s="73"/>
-      <c r="L220" s="51" t="s">
+      <c r="M229" s="15"/>
+    </row>
+    <row r="230" spans="11:13">
+      <c r="K230" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="L230" s="50" t="s">
         <v>940</v>
       </c>
-      <c r="M220" s="15"/>
-    </row>
-    <row r="221" spans="11:13">
-      <c r="K221" s="73"/>
-      <c r="L221" s="51" t="s">
+      <c r="M230" s="15"/>
+    </row>
+    <row r="231" spans="11:13">
+      <c r="K231" s="72"/>
+      <c r="L231" s="51" t="s">
         <v>941</v>
       </c>
-      <c r="M221" s="15"/>
-    </row>
-    <row r="222" spans="11:13">
-      <c r="K222" s="73"/>
-      <c r="L222" s="51" t="s">
+      <c r="M231" s="15"/>
+    </row>
+    <row r="232" spans="11:13">
+      <c r="K232" s="72"/>
+      <c r="L232" s="51" t="s">
         <v>942</v>
       </c>
-      <c r="M222" s="15"/>
-    </row>
-    <row r="223" spans="11:13">
-      <c r="K223" s="73"/>
-      <c r="L223" s="51" t="s">
+      <c r="M232" s="15"/>
+    </row>
+    <row r="233" spans="11:13">
+      <c r="K233" s="72"/>
+      <c r="L233" s="51" t="s">
         <v>943</v>
       </c>
-      <c r="M223" s="15"/>
-    </row>
-    <row r="224" spans="11:13">
-      <c r="K224" s="73"/>
-      <c r="L224" s="51" t="s">
+      <c r="M233" s="15"/>
+    </row>
+    <row r="234" spans="11:13">
+      <c r="K234" s="72"/>
+      <c r="L234" s="51" t="s">
         <v>944</v>
       </c>
-      <c r="M224" s="15"/>
-    </row>
-    <row r="225" spans="11:13">
-      <c r="K225" s="73"/>
-      <c r="L225" s="51" t="s">
+      <c r="M234" s="15"/>
+    </row>
+    <row r="235" spans="11:13">
+      <c r="K235" s="72"/>
+      <c r="L235" s="51" t="s">
         <v>945</v>
       </c>
-      <c r="M225" s="15"/>
-    </row>
-    <row r="226" spans="11:13">
-      <c r="K226" s="73"/>
-      <c r="L226" s="52" t="s">
+      <c r="M235" s="15"/>
+    </row>
+    <row r="236" spans="11:13">
+      <c r="K236" s="72"/>
+      <c r="L236" s="51" t="s">
         <v>946</v>
       </c>
-      <c r="M226" s="15"/>
-    </row>
-    <row r="227" spans="11:13">
-      <c r="K227" s="74" t="s">
-        <v>995</v>
-      </c>
-      <c r="L227" s="50" t="s">
+      <c r="M236" s="15"/>
+    </row>
+    <row r="237" spans="11:13">
+      <c r="K237" s="72"/>
+      <c r="L237" s="51" t="s">
         <v>947</v>
       </c>
-      <c r="M227" s="15"/>
-    </row>
-    <row r="228" spans="11:13">
-      <c r="K228" s="74"/>
-      <c r="L228" s="51" t="s">
+      <c r="M237" s="15"/>
+    </row>
+    <row r="238" spans="11:13">
+      <c r="K238" s="72"/>
+      <c r="L238" s="51" t="s">
         <v>948</v>
       </c>
-      <c r="M228" s="15"/>
-    </row>
-    <row r="229" spans="11:13">
-      <c r="K229" s="74"/>
-      <c r="L229" s="52" t="s">
+      <c r="M238" s="15"/>
+    </row>
+    <row r="239" spans="11:13">
+      <c r="K239" s="72"/>
+      <c r="L239" s="52" t="s">
         <v>949</v>
       </c>
-      <c r="M229" s="15"/>
-    </row>
-    <row r="230" spans="11:13">
-      <c r="K230" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="L230" s="50" t="s">
+      <c r="M239" s="15"/>
+    </row>
+    <row r="240" spans="11:13">
+      <c r="K240" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="L240" s="50" t="s">
         <v>950</v>
       </c>
-      <c r="M230" s="15"/>
-    </row>
-    <row r="231" spans="11:13">
-      <c r="K231" s="75"/>
-      <c r="L231" s="51" t="s">
+      <c r="M240" s="15"/>
+    </row>
+    <row r="241" spans="11:13">
+      <c r="K241" s="73"/>
+      <c r="L241" s="51" t="s">
         <v>951</v>
       </c>
-      <c r="M231" s="15"/>
-    </row>
-    <row r="232" spans="11:13">
-      <c r="K232" s="75"/>
-      <c r="L232" s="51" t="s">
+      <c r="M241" s="15"/>
+    </row>
+    <row r="242" spans="11:13">
+      <c r="K242" s="73"/>
+      <c r="L242" s="51" t="s">
         <v>952</v>
       </c>
-      <c r="M232" s="15"/>
-    </row>
-    <row r="233" spans="11:13">
-      <c r="K233" s="75"/>
-      <c r="L233" s="51" t="s">
+      <c r="M242" s="15"/>
+    </row>
+    <row r="243" spans="11:13">
+      <c r="K243" s="73"/>
+      <c r="L243" s="51" t="s">
         <v>953</v>
       </c>
-      <c r="M233" s="15"/>
-    </row>
-    <row r="234" spans="11:13">
-      <c r="K234" s="75"/>
-      <c r="L234" s="51" t="s">
+      <c r="M243" s="15"/>
+    </row>
+    <row r="244" spans="11:13">
+      <c r="K244" s="73"/>
+      <c r="L244" s="51" t="s">
         <v>954</v>
       </c>
-      <c r="M234" s="15"/>
-    </row>
-    <row r="235" spans="11:13">
-      <c r="K235" s="75"/>
-      <c r="L235" s="51" t="s">
+      <c r="M244" s="15"/>
+    </row>
+    <row r="245" spans="11:13">
+      <c r="K245" s="73"/>
+      <c r="L245" s="51" t="s">
         <v>955</v>
       </c>
-      <c r="M235" s="15"/>
-    </row>
-    <row r="236" spans="11:13">
-      <c r="K236" s="75"/>
-      <c r="L236" s="51" t="s">
+      <c r="M245" s="15"/>
+    </row>
+    <row r="246" spans="11:13">
+      <c r="K246" s="73"/>
+      <c r="L246" s="51" t="s">
         <v>956</v>
       </c>
-      <c r="M236" s="15"/>
-    </row>
-    <row r="237" spans="11:13">
-      <c r="K237" s="75"/>
-      <c r="L237" s="51" t="s">
+      <c r="M246" s="15"/>
+    </row>
+    <row r="247" spans="11:13">
+      <c r="K247" s="73"/>
+      <c r="L247" s="51" t="s">
         <v>957</v>
       </c>
-      <c r="M237" s="15"/>
-    </row>
-    <row r="238" spans="11:13">
-      <c r="K238" s="75"/>
-      <c r="L238" s="51" t="s">
+      <c r="M247" s="15"/>
+    </row>
+    <row r="248" spans="11:13">
+      <c r="K248" s="73"/>
+      <c r="L248" s="51" t="s">
         <v>958</v>
       </c>
-      <c r="M238" s="15"/>
-    </row>
-    <row r="239" spans="11:13">
-      <c r="K239" s="75"/>
-      <c r="L239" s="52" t="s">
+      <c r="M248" s="15"/>
+    </row>
+    <row r="249" spans="11:13">
+      <c r="K249" s="73"/>
+      <c r="L249" s="51" t="s">
         <v>959</v>
       </c>
-      <c r="M239" s="15"/>
-    </row>
-    <row r="240" spans="11:13">
-      <c r="K240" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="L240" s="50" t="s">
+      <c r="M249" s="15"/>
+    </row>
+    <row r="250" spans="11:13">
+      <c r="K250" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="L250" s="50" t="s">
         <v>960</v>
       </c>
-      <c r="M240" s="15"/>
-    </row>
-    <row r="241" spans="11:13">
-      <c r="K241" s="76"/>
-      <c r="L241" s="51" t="s">
+      <c r="M250" s="15"/>
+    </row>
+    <row r="251" spans="11:13">
+      <c r="K251" s="76"/>
+      <c r="L251" s="51" t="s">
         <v>961</v>
       </c>
-      <c r="M241" s="15"/>
-    </row>
-    <row r="242" spans="11:13">
-      <c r="K242" s="76"/>
-      <c r="L242" s="51" t="s">
+    </row>
+    <row r="252" spans="11:13">
+      <c r="K252" s="76"/>
+      <c r="L252" s="51" t="s">
         <v>962</v>
       </c>
-      <c r="M242" s="15"/>
-    </row>
-    <row r="243" spans="11:13">
-      <c r="K243" s="76"/>
-      <c r="L243" s="51" t="s">
-        <v>963</v>
-      </c>
-      <c r="M243" s="15"/>
-    </row>
-    <row r="244" spans="11:13">
-      <c r="K244" s="76"/>
-      <c r="L244" s="51" t="s">
-        <v>964</v>
-      </c>
-      <c r="M244" s="15"/>
-    </row>
-    <row r="245" spans="11:13">
-      <c r="K245" s="76"/>
-      <c r="L245" s="51" t="s">
-        <v>965</v>
-      </c>
-      <c r="M245" s="15"/>
-    </row>
-    <row r="246" spans="11:13">
-      <c r="K246" s="76"/>
-      <c r="L246" s="51" t="s">
-        <v>966</v>
-      </c>
-      <c r="M246" s="15"/>
-    </row>
-    <row r="247" spans="11:13">
-      <c r="K247" s="76"/>
-      <c r="L247" s="51" t="s">
-        <v>967</v>
-      </c>
-      <c r="M247" s="15"/>
-    </row>
-    <row r="248" spans="11:13">
-      <c r="K248" s="76"/>
-      <c r="L248" s="51" t="s">
-        <v>968</v>
-      </c>
-      <c r="M248" s="15"/>
-    </row>
-    <row r="249" spans="11:13">
-      <c r="K249" s="76"/>
-      <c r="L249" s="51" t="s">
-        <v>969</v>
-      </c>
-      <c r="M249" s="15"/>
-    </row>
-    <row r="250" spans="11:13">
-      <c r="K250" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="L250" s="50" t="s">
-        <v>970</v>
-      </c>
-      <c r="M250" s="15"/>
-    </row>
-    <row r="251" spans="11:13">
-      <c r="K251" s="68"/>
-      <c r="L251" s="51" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="252" spans="11:13">
-      <c r="K252" s="68"/>
-      <c r="L252" s="51" t="s">
-        <v>972</v>
-      </c>
     </row>
     <row r="253" spans="11:13">
-      <c r="K253" s="68"/>
+      <c r="K253" s="76"/>
       <c r="L253" s="51" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="254" spans="11:13">
-      <c r="K254" s="68"/>
+      <c r="K254" s="76"/>
       <c r="L254" s="51" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="255" spans="11:13">
-      <c r="K255" s="68"/>
+      <c r="K255" s="76"/>
       <c r="L255" s="51" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="256" spans="11:13">
-      <c r="K256" s="68"/>
+      <c r="K256" s="76"/>
       <c r="L256" s="51" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="257" spans="11:12">
-      <c r="K257" s="68"/>
+      <c r="K257" s="76"/>
       <c r="L257" s="51" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="258" spans="11:12">
-      <c r="K258" s="68"/>
+      <c r="K258" s="76"/>
       <c r="L258" s="51" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="259" spans="11:12">
-      <c r="K259" s="68"/>
+      <c r="K259" s="76"/>
       <c r="L259" s="51" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="260" spans="11:12">
-      <c r="K260" s="68"/>
+      <c r="K260" s="76"/>
       <c r="L260" s="51" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="261" spans="11:12">
-      <c r="K261" s="68"/>
+      <c r="K261" s="76"/>
       <c r="L261" s="51" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="262" spans="11:12">
-      <c r="K262" s="68"/>
+      <c r="K262" s="76"/>
       <c r="L262" s="52" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="263" spans="11:12">
-      <c r="K263" s="69" t="s">
+      <c r="K263" s="74" t="s">
         <v>78</v>
       </c>
       <c r="L263" s="50" t="s">
@@ -8438,31 +8438,31 @@
       </c>
     </row>
     <row r="264" spans="11:12">
-      <c r="K264" s="69"/>
+      <c r="K264" s="74"/>
       <c r="L264" s="51" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="265" spans="11:12">
-      <c r="K265" s="69"/>
+      <c r="K265" s="74"/>
       <c r="L265" s="51" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="266" spans="11:12">
-      <c r="K266" s="69"/>
+      <c r="K266" s="74"/>
       <c r="L266" s="51" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="267" spans="11:12">
-      <c r="K267" s="69"/>
+      <c r="K267" s="74"/>
       <c r="L267" s="52" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="268" spans="11:12">
-      <c r="K268" s="70" t="s">
+      <c r="K268" s="75" t="s">
         <v>79</v>
       </c>
       <c r="L268" s="50" t="s">
@@ -8470,79 +8470,78 @@
       </c>
     </row>
     <row r="269" spans="11:12">
-      <c r="K269" s="70"/>
+      <c r="K269" s="75"/>
       <c r="L269" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="270" spans="11:12">
-      <c r="K270" s="70"/>
+      <c r="K270" s="75"/>
       <c r="L270" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="271" spans="11:12">
-      <c r="K271" s="70"/>
+      <c r="K271" s="75"/>
       <c r="L271" s="51" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="272" spans="11:12">
-      <c r="K272" s="70"/>
+      <c r="K272" s="75"/>
       <c r="L272" s="52" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="273" spans="11:12">
-      <c r="K273" s="71" t="s">
+      <c r="K273" s="68" t="s">
         <v>80</v>
       </c>
       <c r="L273" s="50" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="274" spans="11:12">
-      <c r="K274" s="71"/>
+      <c r="K274" s="68"/>
       <c r="L274" s="51" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
     </row>
     <row r="275" spans="11:12">
-      <c r="K275" s="71"/>
+      <c r="K275" s="68"/>
       <c r="L275" s="51" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="276" spans="11:12">
-      <c r="K276" s="71"/>
+      <c r="K276" s="68"/>
       <c r="L276" s="51" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="277" spans="11:12">
-      <c r="K277" s="71"/>
+      <c r="K277" s="68"/>
       <c r="L277" s="51" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="278" spans="11:12">
-      <c r="K278" s="71"/>
+      <c r="K278" s="68"/>
       <c r="L278" s="52" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K198:K209"/>
-    <mergeCell ref="K126:K137"/>
-    <mergeCell ref="K138:K144"/>
+    <mergeCell ref="K181:K191"/>
+    <mergeCell ref="K192:K197"/>
     <mergeCell ref="K146:K149"/>
     <mergeCell ref="K150:K162"/>
     <mergeCell ref="K163:K172"/>
     <mergeCell ref="K173:K178"/>
     <mergeCell ref="K179:K180"/>
-    <mergeCell ref="K181:K191"/>
-    <mergeCell ref="K192:K197"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="K18:K27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="H2:H3"/>
@@ -8553,27 +8552,28 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="K89:K96"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="K102:K125"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="N9:N11"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="K33:K46"/>
+    <mergeCell ref="K250:K262"/>
+    <mergeCell ref="K263:K267"/>
+    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K89:K96"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="K102:K125"/>
     <mergeCell ref="K47:K58"/>
     <mergeCell ref="K59:K68"/>
     <mergeCell ref="K69:K75"/>
     <mergeCell ref="K76:K84"/>
     <mergeCell ref="K85:K88"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="K18:K27"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="K33:K46"/>
-    <mergeCell ref="K250:K262"/>
-    <mergeCell ref="K263:K267"/>
-    <mergeCell ref="K268:K272"/>
+    <mergeCell ref="K198:K209"/>
+    <mergeCell ref="K126:K137"/>
+    <mergeCell ref="K138:K144"/>
     <mergeCell ref="K273:K278"/>
     <mergeCell ref="K210:K218"/>
     <mergeCell ref="K219:K226"/>
